--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H2">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J2">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.12065029412036</v>
+        <v>0.048574</v>
       </c>
       <c r="N2">
-        <v>4.12065029412036</v>
+        <v>0.145722</v>
       </c>
       <c r="O2">
-        <v>0.460887829207633</v>
+        <v>0.005173961045635648</v>
       </c>
       <c r="P2">
-        <v>0.460887829207633</v>
+        <v>0.005173961045635648</v>
       </c>
       <c r="Q2">
-        <v>34.36458548403561</v>
+        <v>0.03311283103466667</v>
       </c>
       <c r="R2">
-        <v>34.36458548403561</v>
+        <v>0.298015479312</v>
       </c>
       <c r="S2">
-        <v>0.08055567997231824</v>
+        <v>5.746775927366709E-05</v>
       </c>
       <c r="T2">
-        <v>0.08055567997231824</v>
+        <v>5.746775927366708E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.33960249746732</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H3">
-        <v>8.33960249746732</v>
+        <v>2.045096</v>
       </c>
       <c r="I3">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J3">
-        <v>0.1747836997796429</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.82002904906095</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N3">
-        <v>4.82002904906095</v>
+        <v>12.660118</v>
       </c>
       <c r="O3">
-        <v>0.539112170792367</v>
+        <v>0.4495063021722917</v>
       </c>
       <c r="P3">
-        <v>0.539112170792367</v>
+        <v>0.4495063021722917</v>
       </c>
       <c r="Q3">
-        <v>40.19712629541373</v>
+        <v>2.876795186814222</v>
       </c>
       <c r="R3">
-        <v>40.19712629541373</v>
+        <v>25.891156681328</v>
       </c>
       <c r="S3">
-        <v>0.09422801980732462</v>
+        <v>0.004992716361292184</v>
       </c>
       <c r="T3">
-        <v>0.09422801980732462</v>
+        <v>0.004992716361292183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.235814878305286</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H4">
-        <v>0.235814878305286</v>
+        <v>2.045096</v>
       </c>
       <c r="I4">
-        <v>0.004942273556299754</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J4">
-        <v>0.004942273556299754</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.12065029412036</v>
+        <v>0.01908533333333333</v>
       </c>
       <c r="N4">
-        <v>4.12065029412036</v>
+        <v>0.057256</v>
       </c>
       <c r="O4">
-        <v>0.460887829207633</v>
+        <v>0.002032914135332446</v>
       </c>
       <c r="P4">
-        <v>0.460887829207633</v>
+        <v>0.002032914135332446</v>
       </c>
       <c r="Q4">
-        <v>0.9717106476466337</v>
+        <v>0.01301044628622222</v>
       </c>
       <c r="R4">
-        <v>0.9717106476466337</v>
+        <v>0.117094016576</v>
       </c>
       <c r="S4">
-        <v>0.002277833730713282</v>
+        <v>2.257980280927439E-05</v>
       </c>
       <c r="T4">
-        <v>0.002277833730713282</v>
+        <v>2.257980280927439E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.235814878305286</v>
+        <v>0.6816986666666667</v>
       </c>
       <c r="H5">
-        <v>0.235814878305286</v>
+        <v>2.045096</v>
       </c>
       <c r="I5">
-        <v>0.004942273556299754</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="J5">
-        <v>0.004942273556299754</v>
+        <v>0.01110711092851045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82002904906095</v>
+        <v>5.100466333333333</v>
       </c>
       <c r="N5">
-        <v>4.82002904906095</v>
+        <v>15.301399</v>
       </c>
       <c r="O5">
-        <v>0.539112170792367</v>
+        <v>0.5432868226467401</v>
       </c>
       <c r="P5">
-        <v>0.539112170792367</v>
+        <v>0.5432868226467402</v>
       </c>
       <c r="Q5">
-        <v>1.136634563632251</v>
+        <v>3.476981098811556</v>
       </c>
       <c r="R5">
-        <v>1.136634563632251</v>
+        <v>31.292829889304</v>
       </c>
       <c r="S5">
-        <v>0.002664439825586472</v>
+        <v>0.006034347005135328</v>
       </c>
       <c r="T5">
-        <v>0.002664439825586472</v>
+        <v>0.006034347005135329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.1384284118003</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H6">
-        <v>39.1384284118003</v>
+        <v>25.409186</v>
       </c>
       <c r="I6">
-        <v>0.8202740266640574</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="J6">
-        <v>0.8202740266640574</v>
+        <v>0.1379997063732729</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>4.12065029412036</v>
+        <v>0.048574</v>
       </c>
       <c r="N6">
-        <v>4.12065029412036</v>
+        <v>0.145722</v>
       </c>
       <c r="O6">
-        <v>0.460887829207633</v>
+        <v>0.005173961045635648</v>
       </c>
       <c r="P6">
-        <v>0.460887829207633</v>
+        <v>0.005173961045635648</v>
       </c>
       <c r="Q6">
-        <v>161.2757765464936</v>
+        <v>0.4114086002546666</v>
       </c>
       <c r="R6">
-        <v>161.2757765464936</v>
+        <v>3.702677402292</v>
       </c>
       <c r="S6">
-        <v>0.3780543155046015</v>
+        <v>0.0007140051050844713</v>
       </c>
       <c r="T6">
-        <v>0.3780543155046015</v>
+        <v>0.0007140051050844713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.469728666666667</v>
+      </c>
+      <c r="H7">
+        <v>25.409186</v>
+      </c>
+      <c r="I7">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="J7">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.220039333333333</v>
+      </c>
+      <c r="N7">
+        <v>12.660118</v>
+      </c>
+      <c r="O7">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="P7">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="Q7">
+        <v>35.74258811599422</v>
+      </c>
+      <c r="R7">
+        <v>321.683293043948</v>
+      </c>
+      <c r="S7">
+        <v>0.06203173771271192</v>
+      </c>
+      <c r="T7">
+        <v>0.06203173771271192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.469728666666667</v>
+      </c>
+      <c r="H8">
+        <v>25.409186</v>
+      </c>
+      <c r="I8">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="J8">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.057256</v>
+      </c>
+      <c r="O8">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="P8">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="Q8">
+        <v>0.1616475948462222</v>
+      </c>
+      <c r="R8">
+        <v>1.454828353616</v>
+      </c>
+      <c r="S8">
+        <v>0.0002805415537579534</v>
+      </c>
+      <c r="T8">
+        <v>0.0002805415537579534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.469728666666667</v>
+      </c>
+      <c r="H9">
+        <v>25.409186</v>
+      </c>
+      <c r="I9">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="J9">
+        <v>0.1379997063732729</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.100466333333333</v>
+      </c>
+      <c r="N9">
+        <v>15.301399</v>
+      </c>
+      <c r="O9">
+        <v>0.5432868226467401</v>
+      </c>
+      <c r="P9">
+        <v>0.5432868226467402</v>
+      </c>
+      <c r="Q9">
+        <v>43.19956591680155</v>
+      </c>
+      <c r="R9">
+        <v>388.796093251214</v>
+      </c>
+      <c r="S9">
+        <v>0.0749734220017185</v>
+      </c>
+      <c r="T9">
+        <v>0.07497342200171851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.124477</v>
+      </c>
+      <c r="I10">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J10">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.048574</v>
+      </c>
+      <c r="N10">
+        <v>0.145722</v>
+      </c>
+      <c r="O10">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="P10">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="Q10">
+        <v>0.01820678193266667</v>
+      </c>
+      <c r="R10">
+        <v>0.163861037394</v>
+      </c>
+      <c r="S10">
+        <v>3.159811253103783E-05</v>
+      </c>
+      <c r="T10">
+        <v>3.159811253103782E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.124477</v>
+      </c>
+      <c r="I11">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J11">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.220039333333333</v>
+      </c>
+      <c r="N11">
+        <v>12.660118</v>
+      </c>
+      <c r="O11">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="P11">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="Q11">
+        <v>1.581779056476222</v>
+      </c>
+      <c r="R11">
+        <v>14.236011508286</v>
+      </c>
+      <c r="S11">
+        <v>0.002745198619427524</v>
+      </c>
+      <c r="T11">
+        <v>0.002745198619427523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.124477</v>
+      </c>
+      <c r="I12">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J12">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.057256</v>
+      </c>
+      <c r="O12">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="P12">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="Q12">
+        <v>0.007153672790222222</v>
+      </c>
+      <c r="R12">
+        <v>0.064383055112</v>
+      </c>
+      <c r="S12">
+        <v>1.241529440357051E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.241529440357051E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3748256666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.124477</v>
+      </c>
+      <c r="I13">
+        <v>0.006107141559886993</v>
+      </c>
+      <c r="J13">
+        <v>0.006107141559886992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.100466333333333</v>
+      </c>
+      <c r="N13">
+        <v>15.301399</v>
+      </c>
+      <c r="O13">
+        <v>0.5432868226467401</v>
+      </c>
+      <c r="P13">
+        <v>0.5432868226467402</v>
+      </c>
+      <c r="Q13">
+        <v>1.911785693702555</v>
+      </c>
+      <c r="R13">
+        <v>17.206071243323</v>
+      </c>
+      <c r="S13">
+        <v>0.00331792953352486</v>
+      </c>
+      <c r="T13">
+        <v>0.00331792953352486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.434785</v>
+      </c>
+      <c r="I14">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J14">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.048574</v>
+      </c>
+      <c r="N14">
+        <v>0.145722</v>
+      </c>
+      <c r="O14">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="P14">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="Q14">
+        <v>0.007039748863333333</v>
+      </c>
+      <c r="R14">
+        <v>0.06335773976999999</v>
+      </c>
+      <c r="S14">
+        <v>1.221757791115984E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.221757791115984E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.434785</v>
+      </c>
+      <c r="I15">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J15">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.220039333333333</v>
+      </c>
+      <c r="N15">
+        <v>12.660118</v>
+      </c>
+      <c r="O15">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="P15">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="Q15">
+        <v>0.611603267181111</v>
+      </c>
+      <c r="R15">
+        <v>5.504429404629999</v>
+      </c>
+      <c r="S15">
+        <v>0.001061445615826554</v>
+      </c>
+      <c r="T15">
+        <v>0.001061445615826554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.434785</v>
+      </c>
+      <c r="I16">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J16">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.057256</v>
+      </c>
+      <c r="O16">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="P16">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="Q16">
+        <v>0.002766005551111111</v>
+      </c>
+      <c r="R16">
+        <v>0.02489404996</v>
+      </c>
+      <c r="S16">
+        <v>4.800439472978464E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.800439472978464E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1449283333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.434785</v>
+      </c>
+      <c r="I17">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="J17">
+        <v>0.002361358696634494</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.100466333333333</v>
+      </c>
+      <c r="N17">
+        <v>15.301399</v>
+      </c>
+      <c r="O17">
+        <v>0.5432868226467401</v>
+      </c>
+      <c r="P17">
+        <v>0.5432868226467402</v>
+      </c>
+      <c r="Q17">
+        <v>0.7392020849127777</v>
+      </c>
+      <c r="R17">
+        <v>6.652818764215</v>
+      </c>
+      <c r="S17">
+        <v>0.001282895063423802</v>
+      </c>
+      <c r="T17">
+        <v>0.001282895063423802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H18">
+        <v>155.111384</v>
+      </c>
+      <c r="I18">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J18">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.048574</v>
+      </c>
+      <c r="N18">
+        <v>0.145722</v>
+      </c>
+      <c r="O18">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="P18">
+        <v>0.005173961045635648</v>
+      </c>
+      <c r="Q18">
+        <v>2.511460122138666</v>
+      </c>
+      <c r="R18">
+        <v>22.603141099248</v>
+      </c>
+      <c r="S18">
+        <v>0.004358672490835313</v>
+      </c>
+      <c r="T18">
+        <v>0.004358672490835313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H19">
+        <v>155.111384</v>
+      </c>
+      <c r="I19">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J19">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.220039333333333</v>
+      </c>
+      <c r="N19">
+        <v>12.660118</v>
+      </c>
+      <c r="O19">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="P19">
+        <v>0.4495063021722917</v>
+      </c>
+      <c r="Q19">
+        <v>218.1920471759235</v>
+      </c>
+      <c r="R19">
+        <v>1963.728424583312</v>
+      </c>
+      <c r="S19">
+        <v>0.3786752038630336</v>
+      </c>
+      <c r="T19">
+        <v>0.3786752038630335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="H7">
-        <v>39.1384284118003</v>
-      </c>
-      <c r="I7">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="J7">
-        <v>0.8202740266640574</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.82002904906095</v>
-      </c>
-      <c r="N7">
-        <v>4.82002904906095</v>
-      </c>
-      <c r="O7">
-        <v>0.539112170792367</v>
-      </c>
-      <c r="P7">
-        <v>0.539112170792367</v>
-      </c>
-      <c r="Q7">
-        <v>188.6483618794699</v>
-      </c>
-      <c r="R7">
-        <v>188.6483618794699</v>
-      </c>
-      <c r="S7">
-        <v>0.4422197111594559</v>
-      </c>
-      <c r="T7">
-        <v>0.4422197111594559</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H20">
+        <v>155.111384</v>
+      </c>
+      <c r="I20">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J20">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01908533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.057256</v>
+      </c>
+      <c r="O20">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="P20">
+        <v>0.002032914135332446</v>
+      </c>
+      <c r="Q20">
+        <v>0.9867841558115554</v>
+      </c>
+      <c r="R20">
+        <v>8.881057402304</v>
+      </c>
+      <c r="S20">
+        <v>0.001712577044888669</v>
+      </c>
+      <c r="T20">
+        <v>0.001712577044888669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>51.70379466666666</v>
+      </c>
+      <c r="H21">
+        <v>155.111384</v>
+      </c>
+      <c r="I21">
+        <v>0.8424246824416953</v>
+      </c>
+      <c r="J21">
+        <v>0.8424246824416952</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.100466333333333</v>
+      </c>
+      <c r="N21">
+        <v>15.301399</v>
+      </c>
+      <c r="O21">
+        <v>0.5432868226467401</v>
+      </c>
+      <c r="P21">
+        <v>0.5432868226467402</v>
+      </c>
+      <c r="Q21">
+        <v>263.7134640029129</v>
+      </c>
+      <c r="R21">
+        <v>2373.421176026216</v>
+      </c>
+      <c r="S21">
+        <v>0.4576782290429377</v>
+      </c>
+      <c r="T21">
+        <v>0.4576782290429377</v>
       </c>
     </row>
   </sheetData>
